--- a/Percentage Difference Break Down formula.xlsx
+++ b/Percentage Difference Break Down formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1F847-F29D-4F01-B1D4-2B8FDE053BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC67D5-A514-4D78-8138-05D7D40E9885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{08B9B44F-3B79-422D-84E6-A72EDB3BCCD9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Project 1</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Percentage Difference Break-Down (shortened)</t>
   </si>
 </sst>
 </file>
@@ -350,40 +353,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -417,6 +396,49 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,25 +448,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C603F10A-2A11-49B6-9F3F-0827B49425EA}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -777,1735 +780,1820 @@
     <col min="19" max="19" width="10.90625" customWidth="1"/>
     <col min="20" max="20" width="7.6796875" customWidth="1"/>
     <col min="21" max="21" width="11.31640625" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="43" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="6" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
     </row>
-    <row r="2" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:23" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="44"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>53330</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="14">
         <v>3859.0977443609022</v>
       </c>
-      <c r="E3" s="22">
-        <f>D3/C3</f>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E22" si="0">D3/C3</f>
         <v>7.2362605369602512E-2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>1330</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>96.242265141571337</v>
       </c>
-      <c r="H3" s="16">
-        <f>G3/F3</f>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H8" si="1">G3/F3</f>
         <v>7.2362605369602512E-2</v>
       </c>
-      <c r="I3" s="41">
-        <f>C3-F3</f>
+      <c r="I3" s="33">
+        <f t="shared" ref="I3:I22" si="2">C3-F3</f>
         <v>52000</v>
       </c>
-      <c r="J3" s="42">
-        <f>D3-G3</f>
+      <c r="J3" s="34">
+        <f t="shared" ref="J3:J22" si="3">D3-G3</f>
         <v>3762.8554792193308</v>
       </c>
-      <c r="K3" s="16">
-        <f>E3-H3</f>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K22" si="4">E3-H3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="41">
-        <f>($C$24-C3+F3)</f>
+      <c r="L3" s="33">
+        <f t="shared" ref="L3:L22" si="5">($C$24-C3+F3)</f>
         <v>137054.39999999999</v>
       </c>
-      <c r="M3" s="9">
-        <f>($D$24-D3+G3)</f>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M22" si="6">($D$24-D3+G3)</f>
         <v>18426.703965141573</v>
       </c>
-      <c r="N3" s="10">
-        <f>M3/L3</f>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:N22" si="7">M3/L3</f>
         <v>0.13444810210501504</v>
       </c>
-      <c r="O3" s="24">
-        <f>$E$24-N3</f>
+      <c r="O3" s="16">
+        <f t="shared" ref="O3:O22" si="8">$E$24-N3</f>
         <v>-1.7076808739925939E-2</v>
       </c>
-      <c r="P3" s="8">
-        <f>($F$24-F3+C3)</f>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P22" si="9">($F$24-F3+C3)</f>
         <v>180064</v>
       </c>
-      <c r="Q3" s="9">
-        <f>($G$24-G3+D3)</f>
+      <c r="Q3" s="7">
+        <f t="shared" ref="Q3:Q22" si="10">($G$24-G3+D3)</f>
         <v>22369.994744360902</v>
       </c>
-      <c r="R3" s="10">
-        <f>Q3/P3</f>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R22" si="11">Q3/P3</f>
         <v>0.12423357664142139</v>
       </c>
-      <c r="S3" s="11">
-        <f>$H$24-R3</f>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3:S22" si="12">$H$24-R3</f>
         <v>2.1062051053649625E-2</v>
       </c>
-      <c r="T3" s="47">
-        <f>(L3*O3-P3*S3)/($C$24+$F$24)</f>
+      <c r="T3" s="35">
+        <f t="shared" ref="T3:T22" si="13">(L3*O3-P3*S3)/($C$24+$F$24)</f>
         <v>-1.9339681761416781E-2</v>
       </c>
       <c r="U3" s="2">
-        <f>T3</f>
+        <f t="shared" ref="U3:U22" si="14">T3</f>
         <v>-1.9339681761416781E-2</v>
       </c>
+      <c r="V3" s="1">
+        <f>(($F$24*$D$24*(F3-C3)+2*$C$24*$F$24*(D3-G3)-$C$24*$G$24*(C3-F3))/($C$24*$F$24))/($C$24+$F$24)</f>
+        <v>-1.933968176141676E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>13073.68</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>922.73014000000001</v>
       </c>
-      <c r="E4" s="22">
-        <f>D4/C4</f>
+      <c r="E4" s="15">
+        <f t="shared" si="0"/>
         <v>7.0579220234853537E-2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>17613</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>3159.4270000000001</v>
       </c>
-      <c r="H4" s="16">
-        <f>G4/F4</f>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
         <v>0.17938040084028842</v>
       </c>
-      <c r="I4" s="8">
-        <f>C4-F4</f>
+      <c r="I4" s="6">
+        <f t="shared" si="2"/>
         <v>-4539.32</v>
       </c>
-      <c r="J4" s="42">
-        <f>D4-G4</f>
+      <c r="J4" s="34">
+        <f t="shared" si="3"/>
         <v>-2236.69686</v>
       </c>
-      <c r="K4" s="16">
-        <f>E4-H4</f>
+      <c r="K4" s="12">
+        <f t="shared" si="4"/>
         <v>-0.10880118060543488</v>
       </c>
-      <c r="L4" s="8">
-        <f>($C$24-C4+F4)</f>
+      <c r="L4" s="6">
+        <f t="shared" si="5"/>
         <v>193593.72</v>
       </c>
-      <c r="M4" s="9">
-        <f>($D$24-D4+G4)</f>
+      <c r="M4" s="7">
+        <f t="shared" si="6"/>
         <v>24426.256304360901</v>
       </c>
-      <c r="N4" s="10">
-        <f>M4/L4</f>
+      <c r="N4" s="8">
+        <f t="shared" si="7"/>
         <v>0.12617277205252783</v>
       </c>
-      <c r="O4" s="24">
-        <f>$E$24-N4</f>
+      <c r="O4" s="16">
+        <f t="shared" si="8"/>
         <v>-8.8014786874387324E-3</v>
       </c>
-      <c r="P4" s="8">
-        <f>($F$24-F4+C4)</f>
+      <c r="P4" s="6">
+        <f t="shared" si="9"/>
         <v>123524.68</v>
       </c>
-      <c r="Q4" s="9">
-        <f>($G$24-G4+D4)</f>
+      <c r="Q4" s="7">
+        <f t="shared" si="10"/>
         <v>16370.442405141574</v>
       </c>
-      <c r="R4" s="10">
-        <f>Q4/P4</f>
+      <c r="R4" s="8">
+        <f t="shared" si="11"/>
         <v>0.13252770543620573</v>
       </c>
-      <c r="S4" s="11">
-        <f>$H$24-R4</f>
+      <c r="S4" s="9">
+        <f t="shared" si="12"/>
         <v>1.2767922258865277E-2</v>
       </c>
-      <c r="T4" s="47">
-        <f>(L4*O4-P4*S4)/($C$24+$F$24)</f>
+      <c r="T4" s="35">
+        <f t="shared" si="13"/>
         <v>-1.0346496803380666E-2</v>
       </c>
       <c r="U4" s="2">
-        <f>T4</f>
+        <f t="shared" si="14"/>
         <v>-1.0346496803380666E-2</v>
       </c>
+      <c r="V4" s="1">
+        <f>(($F$24*$D$24*(F4-C4)+2*$C$24*$F$24*(D4-G4)-$C$24*$G$24*(C4-F4))/($C$24*$F$24))/($C$24+$F$24)</f>
+        <v>-1.0346496803380673E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>12665.28</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="14">
         <v>2059.3488200000002</v>
       </c>
-      <c r="E5" s="22">
-        <f>D5/C5</f>
+      <c r="E5" s="15">
+        <f t="shared" si="0"/>
         <v>0.16259797019884281</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>18016</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>3572.0219999999999</v>
       </c>
-      <c r="H5" s="16">
-        <f>G5/F5</f>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
         <v>0.1982694271758437</v>
       </c>
-      <c r="I5" s="8">
-        <f>C5-F5</f>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
         <v>-5350.7199999999993</v>
       </c>
-      <c r="J5" s="42">
-        <f>D5-G5</f>
+      <c r="J5" s="34">
+        <f t="shared" si="3"/>
         <v>-1512.6731799999998</v>
       </c>
-      <c r="K5" s="16">
-        <f>E5-H5</f>
+      <c r="K5" s="12">
+        <f t="shared" si="4"/>
         <v>-3.5671456977000887E-2</v>
       </c>
-      <c r="L5" s="8">
-        <f>($C$24-C5+F5)</f>
+      <c r="L5" s="6">
+        <f t="shared" si="5"/>
         <v>194405.12</v>
       </c>
-      <c r="M5" s="9">
-        <f>($D$24-D5+G5)</f>
+      <c r="M5" s="7">
+        <f t="shared" si="6"/>
         <v>23702.232624360902</v>
       </c>
-      <c r="N5" s="10">
-        <f>M5/L5</f>
+      <c r="N5" s="8">
+        <f t="shared" si="7"/>
         <v>0.12192185382957456</v>
       </c>
-      <c r="O5" s="24">
-        <f>$E$24-N5</f>
+      <c r="O5" s="16">
+        <f t="shared" si="8"/>
         <v>-4.5505604644854591E-3</v>
       </c>
-      <c r="P5" s="8">
-        <f>($F$24-F5+C5)</f>
+      <c r="P5" s="6">
+        <f t="shared" si="9"/>
         <v>122713.28</v>
       </c>
-      <c r="Q5" s="9">
-        <f>($G$24-G5+D5)</f>
+      <c r="Q5" s="7">
+        <f t="shared" si="10"/>
         <v>17094.466085141572</v>
       </c>
-      <c r="R5" s="10">
-        <f>Q5/P5</f>
+      <c r="R5" s="8">
+        <f t="shared" si="11"/>
         <v>0.13930412490923208</v>
       </c>
-      <c r="S5" s="11">
-        <f>$H$24-R5</f>
+      <c r="S5" s="9">
+        <f t="shared" si="12"/>
         <v>5.9915027858389314E-3</v>
       </c>
-      <c r="T5" s="47">
-        <f>(L5*O5-P5*S5)/($C$24+$F$24)</f>
+      <c r="T5" s="35">
+        <f t="shared" si="13"/>
         <v>-5.1081527030439862E-3</v>
       </c>
       <c r="U5" s="2">
-        <f>T5</f>
+        <f t="shared" si="14"/>
         <v>-5.1081527030439862E-3</v>
       </c>
+      <c r="V5" s="1">
+        <f>(($F$24*$D$24*(F5-C5)+2*$C$24*$F$24*(D5-G5)-$C$24*$G$24*(C5-F5))/($C$24*$F$24))/($C$24+$F$24)</f>
+        <v>-5.1081527030439732E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="13">
         <v>6588.8</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="14">
         <v>739.43039999999996</v>
       </c>
-      <c r="E6" s="22">
-        <f>D6/C6</f>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
         <v>0.11222535211267605</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>4640</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>770.24</v>
       </c>
-      <c r="H6" s="16">
-        <f>G6/F6</f>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
         <v>0.16600000000000001</v>
       </c>
-      <c r="I6" s="8">
-        <f>C6-F6</f>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
         <v>1948.8000000000002</v>
       </c>
-      <c r="J6" s="42">
-        <f>D6-G6</f>
+      <c r="J6" s="34">
+        <f t="shared" si="3"/>
         <v>-30.809600000000046</v>
       </c>
-      <c r="K6" s="16">
-        <f>E6-H6</f>
+      <c r="K6" s="12">
+        <f t="shared" si="4"/>
         <v>-5.3774647887323959E-2</v>
       </c>
-      <c r="L6" s="8">
-        <f>($C$24-C6+F6)</f>
+      <c r="L6" s="6">
+        <f t="shared" si="5"/>
         <v>187105.6</v>
       </c>
-      <c r="M6" s="9">
-        <f>($D$24-D6+G6)</f>
+      <c r="M6" s="7">
+        <f t="shared" si="6"/>
         <v>22220.369044360901</v>
       </c>
-      <c r="N6" s="10">
-        <f>M6/L6</f>
+      <c r="N6" s="8">
+        <f t="shared" si="7"/>
         <v>0.11875843932175681</v>
       </c>
-      <c r="O6" s="24">
-        <f>$E$24-N6</f>
+      <c r="O6" s="16">
+        <f t="shared" si="8"/>
         <v>-1.3871459566677097E-3</v>
       </c>
-      <c r="P6" s="8">
-        <f>($F$24-F6+C6)</f>
+      <c r="P6" s="6">
+        <f t="shared" si="9"/>
         <v>130012.8</v>
       </c>
-      <c r="Q6" s="9">
-        <f>($G$24-G6+D6)</f>
+      <c r="Q6" s="7">
+        <f t="shared" si="10"/>
         <v>18576.329665141573</v>
       </c>
-      <c r="R6" s="10">
-        <f>Q6/P6</f>
+      <c r="R6" s="8">
+        <f t="shared" si="11"/>
         <v>0.14288077531705781</v>
       </c>
-      <c r="S6" s="11">
-        <f>$H$24-R6</f>
+      <c r="S6" s="9">
+        <f t="shared" si="12"/>
         <v>2.4148523780131992E-3</v>
       </c>
-      <c r="T6" s="47">
-        <f>(L6*O6-P6*S6)/($C$24+$F$24)</f>
+      <c r="T6" s="35">
+        <f t="shared" si="13"/>
         <v>-1.8084869744614007E-3</v>
       </c>
       <c r="U6" s="2">
-        <f>T6</f>
+        <f t="shared" si="14"/>
         <v>-1.8084869744614007E-3</v>
       </c>
+      <c r="V6" s="1">
+        <f t="shared" ref="V6:V22" si="15">(($F$24*$D$24*(F6-C6)+2*$C$24*$F$24*(D6-G6)-$C$24*$G$24*(C6-F6))/($C$24*$F$24))/($C$24+$F$24)</f>
+        <v>-1.8084869744614002E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>6254.55</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="14">
         <v>930.96180000000004</v>
       </c>
-      <c r="E7" s="22">
-        <f>D7/C7</f>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
         <v>0.14884552845528456</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>5085</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>1011.9150000000001</v>
       </c>
-      <c r="H7" s="16">
-        <f>G7/F7</f>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
         <v>0.19900000000000001</v>
       </c>
-      <c r="I7" s="8">
-        <f>C7-F7</f>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
         <v>1169.5500000000002</v>
       </c>
-      <c r="J7" s="42">
-        <f>D7-G7</f>
+      <c r="J7" s="34">
+        <f t="shared" si="3"/>
         <v>-80.953200000000038</v>
       </c>
-      <c r="K7" s="16">
-        <f>E7-H7</f>
+      <c r="K7" s="12">
+        <f t="shared" si="4"/>
         <v>-5.0154471544715445E-2</v>
       </c>
-      <c r="L7" s="8">
-        <f>($C$24-C7+F7)</f>
+      <c r="L7" s="6">
+        <f t="shared" si="5"/>
         <v>187884.85</v>
       </c>
-      <c r="M7" s="9">
-        <f>($D$24-D7+G7)</f>
+      <c r="M7" s="7">
+        <f t="shared" si="6"/>
         <v>22270.512644360901</v>
       </c>
-      <c r="N7" s="10">
-        <f>M7/L7</f>
+      <c r="N7" s="8">
+        <f t="shared" si="7"/>
         <v>0.11853277496488354</v>
       </c>
-      <c r="O7" s="24">
-        <f>$E$24-N7</f>
+      <c r="O7" s="16">
+        <f t="shared" si="8"/>
         <v>-1.1614815997944422E-3</v>
       </c>
-      <c r="P7" s="8">
-        <f>($F$24-F7+C7)</f>
+      <c r="P7" s="6">
+        <f t="shared" si="9"/>
         <v>129233.55</v>
       </c>
-      <c r="Q7" s="9">
-        <f>($G$24-G7+D7)</f>
+      <c r="Q7" s="7">
+        <f t="shared" si="10"/>
         <v>18526.186065141574</v>
       </c>
-      <c r="R7" s="10">
-        <f>Q7/P7</f>
+      <c r="R7" s="8">
+        <f t="shared" si="11"/>
         <v>0.14335430749322892</v>
       </c>
-      <c r="S7" s="11">
-        <f>$H$24-R7</f>
+      <c r="S7" s="9">
+        <f t="shared" si="12"/>
         <v>1.941320201842095E-3</v>
       </c>
-      <c r="T7" s="47">
-        <f>(L7*O7-P7*S7)/($C$24+$F$24)</f>
+      <c r="T7" s="35">
+        <f t="shared" si="13"/>
         <v>-1.4792850163406136E-3</v>
       </c>
       <c r="U7" s="2">
-        <f>T7</f>
+        <f t="shared" si="14"/>
         <v>-1.4792850163406136E-3</v>
       </c>
+      <c r="V7" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.4792850163406171E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <v>3431.94</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <v>159.59738000000002</v>
       </c>
-      <c r="E8" s="22">
-        <f>D8/C8</f>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
         <v>4.6503546099290784E-2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>2434</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>202.02200000000002</v>
       </c>
-      <c r="H8" s="16">
-        <f>G8/F8</f>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I8" s="8">
-        <f>C8-F8</f>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
         <v>997.94</v>
       </c>
-      <c r="J8" s="42">
-        <f>D8-G8</f>
+      <c r="J8" s="34">
+        <f t="shared" si="3"/>
         <v>-42.424620000000004</v>
       </c>
-      <c r="K8" s="16">
-        <f>E8-H8</f>
+      <c r="K8" s="12">
+        <f t="shared" si="4"/>
         <v>-3.6496453900709221E-2</v>
       </c>
-      <c r="L8" s="8">
-        <f>($C$24-C8+F8)</f>
+      <c r="L8" s="6">
+        <f t="shared" si="5"/>
         <v>188056.46</v>
       </c>
-      <c r="M8" s="9">
-        <f>($D$24-D8+G8)</f>
+      <c r="M8" s="7">
+        <f t="shared" si="6"/>
         <v>22231.984064360902</v>
       </c>
-      <c r="N8" s="10">
-        <f>M8/L8</f>
+      <c r="N8" s="8">
+        <f t="shared" si="7"/>
         <v>0.11821973073597633</v>
       </c>
-      <c r="O8" s="24">
-        <f>$E$24-N8</f>
+      <c r="O8" s="16">
+        <f t="shared" si="8"/>
         <v>-8.4843737088723115E-4</v>
       </c>
-      <c r="P8" s="8">
-        <f>($F$24-F8+C8)</f>
+      <c r="P8" s="6">
+        <f t="shared" si="9"/>
         <v>129061.94</v>
       </c>
-      <c r="Q8" s="9">
-        <f>($G$24-G8+D8)</f>
+      <c r="Q8" s="7">
+        <f t="shared" si="10"/>
         <v>18564.714645141572</v>
       </c>
-      <c r="R8" s="10">
-        <f>Q8/P8</f>
+      <c r="R8" s="8">
+        <f t="shared" si="11"/>
         <v>0.14384344947194791</v>
       </c>
-      <c r="S8" s="11">
-        <f>$H$24-R8</f>
+      <c r="S8" s="9">
+        <f t="shared" si="12"/>
         <v>1.4521782231231017E-3</v>
       </c>
-      <c r="T8" s="47">
-        <f>(L8*O8-P8*S8)/($C$24+$F$24)</f>
+      <c r="T8" s="35">
+        <f t="shared" si="13"/>
         <v>-1.0941499049023332E-3</v>
       </c>
       <c r="U8" s="2">
-        <f>T8</f>
+        <f t="shared" si="14"/>
         <v>-1.0941499049023332E-3</v>
       </c>
+      <c r="V8" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.094149904902321E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>2356</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="14">
         <v>172</v>
       </c>
-      <c r="E9" s="22">
-        <f>D9/C9</f>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
         <v>7.3005093378607805E-2</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="8">
-        <f>C9-F9</f>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
         <v>2356</v>
       </c>
-      <c r="J9" s="42">
-        <f>D9-G9</f>
+      <c r="J9" s="34">
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="K9" s="16">
-        <f>E9-H9</f>
+      <c r="K9" s="12">
+        <f t="shared" si="4"/>
         <v>7.3005093378607805E-2</v>
       </c>
-      <c r="L9" s="8">
-        <f>($C$24-C9+F9)</f>
+      <c r="L9" s="6">
+        <f t="shared" si="5"/>
         <v>186698.4</v>
       </c>
-      <c r="M9" s="9">
-        <f>($D$24-D9+G9)</f>
+      <c r="M9" s="7">
+        <f t="shared" si="6"/>
         <v>22017.559444360901</v>
       </c>
-      <c r="N9" s="10">
-        <f>M9/L9</f>
+      <c r="N9" s="8">
+        <f t="shared" si="7"/>
         <v>0.11793116301136433</v>
       </c>
-      <c r="O9" s="24">
-        <f>$E$24-N9</f>
+      <c r="O9" s="16">
+        <f t="shared" si="8"/>
         <v>-5.5986964627523228E-4</v>
       </c>
-      <c r="P9" s="8">
-        <f>($F$24-F9+C9)</f>
+      <c r="P9" s="6">
+        <f t="shared" si="9"/>
         <v>130420</v>
       </c>
-      <c r="Q9" s="9">
-        <f>($G$24-G9+D9)</f>
+      <c r="Q9" s="7">
+        <f t="shared" si="10"/>
         <v>18779.139265141574</v>
       </c>
-      <c r="R9" s="10">
-        <f>Q9/P9</f>
+      <c r="R9" s="8">
+        <f t="shared" si="11"/>
         <v>0.1439897198676704</v>
       </c>
-      <c r="S9" s="11">
-        <f>$H$24-R9</f>
+      <c r="S9" s="9">
+        <f t="shared" si="12"/>
         <v>1.3059078274006153E-3</v>
       </c>
-      <c r="T9" s="47">
-        <f>(L9*O9-P9*S9)/($C$24+$F$24)</f>
+      <c r="T9" s="35">
+        <f t="shared" si="13"/>
         <v>-8.6668974748150857E-4</v>
       </c>
       <c r="U9" s="2">
-        <f>T9</f>
+        <f t="shared" si="14"/>
         <v>-8.6668974748150857E-4</v>
       </c>
+      <c r="V9" s="1">
+        <f t="shared" si="15"/>
+        <v>-8.6668974748149968E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="13">
         <v>4908.1499999999996</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="14">
         <v>230.30549999999999</v>
       </c>
-      <c r="E10" s="22">
-        <f>D10/C10</f>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
         <v>4.6923076923076928E-2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>4195</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>255.89499999999998</v>
       </c>
-      <c r="H10" s="16">
-        <f>G10/F10</f>
+      <c r="H10" s="12">
+        <f t="shared" ref="H10:H22" si="16">G10/F10</f>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I10" s="8">
-        <f>C10-F10</f>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
         <v>713.14999999999964</v>
       </c>
-      <c r="J10" s="42">
-        <f>D10-G10</f>
+      <c r="J10" s="34">
+        <f t="shared" si="3"/>
         <v>-25.589499999999987</v>
       </c>
-      <c r="K10" s="16">
-        <f>E10-H10</f>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
         <v>-1.407692307692307E-2</v>
       </c>
-      <c r="L10" s="8">
-        <f>($C$24-C10+F10)</f>
+      <c r="L10" s="6">
+        <f t="shared" si="5"/>
         <v>188341.25</v>
       </c>
-      <c r="M10" s="9">
-        <f>($D$24-D10+G10)</f>
+      <c r="M10" s="7">
+        <f t="shared" si="6"/>
         <v>22215.148944360903</v>
       </c>
-      <c r="N10" s="10">
-        <f>M10/L10</f>
+      <c r="N10" s="8">
+        <f t="shared" si="7"/>
         <v>0.11795158492555881</v>
       </c>
-      <c r="O10" s="24">
-        <f>$E$24-N10</f>
+      <c r="O10" s="16">
+        <f t="shared" si="8"/>
         <v>-5.8029156046970898E-4</v>
       </c>
-      <c r="P10" s="8">
-        <f>($F$24-F10+C10)</f>
+      <c r="P10" s="6">
+        <f t="shared" si="9"/>
         <v>128777.15</v>
       </c>
-      <c r="Q10" s="9">
-        <f>($G$24-G10+D10)</f>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
         <v>18581.549765141572</v>
       </c>
-      <c r="R10" s="10">
-        <f>Q10/P10</f>
+      <c r="R10" s="8">
+        <f t="shared" si="11"/>
         <v>0.14429228916109396</v>
       </c>
-      <c r="S10" s="11">
-        <f>$H$24-R10</f>
+      <c r="S10" s="9">
+        <f t="shared" si="12"/>
         <v>1.0033385339770495E-3</v>
       </c>
-      <c r="T10" s="47">
-        <f>(L10*O10-P10*S10)/($C$24+$F$24)</f>
+      <c r="T10" s="35">
+        <f t="shared" si="13"/>
         <v>-7.5208475684179212E-4</v>
       </c>
       <c r="U10" s="2">
-        <f>T10</f>
+        <f t="shared" si="14"/>
         <v>-7.5208475684179212E-4</v>
       </c>
+      <c r="V10" s="1">
+        <f t="shared" si="15"/>
+        <v>-7.5208475684177597E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <v>3216.04</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="14">
         <v>270.32940000000002</v>
       </c>
-      <c r="E11" s="22">
-        <f>D11/C11</f>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
         <v>8.4056603773584912E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>3034</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>300.36600000000004</v>
       </c>
-      <c r="H11" s="16">
-        <f>G11/F11</f>
+      <c r="H11" s="12">
+        <f t="shared" si="16"/>
         <v>9.9000000000000019E-2</v>
       </c>
-      <c r="I11" s="8">
-        <f>C11-F11</f>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
         <v>182.03999999999996</v>
       </c>
-      <c r="J11" s="42">
-        <f>D11-G11</f>
+      <c r="J11" s="34">
+        <f t="shared" si="3"/>
         <v>-30.036600000000021</v>
       </c>
-      <c r="K11" s="16">
-        <f>E11-H11</f>
+      <c r="K11" s="12">
+        <f t="shared" si="4"/>
         <v>-1.4943396226415107E-2</v>
       </c>
-      <c r="L11" s="8">
-        <f>($C$24-C11+F11)</f>
+      <c r="L11" s="6">
+        <f t="shared" si="5"/>
         <v>188872.36</v>
       </c>
-      <c r="M11" s="9">
-        <f>($D$24-D11+G11)</f>
+      <c r="M11" s="7">
+        <f t="shared" si="6"/>
         <v>22219.596044360904</v>
       </c>
-      <c r="N11" s="10">
-        <f>M11/L11</f>
+      <c r="N11" s="8">
+        <f t="shared" si="7"/>
         <v>0.11764345002286679</v>
       </c>
-      <c r="O11" s="24">
-        <f>$E$24-N11</f>
+      <c r="O11" s="16">
+        <f t="shared" si="8"/>
         <v>-2.7215665777768905E-4</v>
       </c>
-      <c r="P11" s="8">
-        <f>($F$24-F11+C11)</f>
+      <c r="P11" s="6">
+        <f t="shared" si="9"/>
         <v>128246.04</v>
       </c>
-      <c r="Q11" s="9">
-        <f>($G$24-G11+D11)</f>
+      <c r="Q11" s="7">
+        <f t="shared" si="10"/>
         <v>18577.10266514157</v>
       </c>
-      <c r="R11" s="10">
-        <f>Q11/P11</f>
+      <c r="R11" s="8">
+        <f t="shared" si="11"/>
         <v>0.1448551757632561</v>
       </c>
-      <c r="S11" s="11">
-        <f>$H$24-R11</f>
+      <c r="S11" s="9">
+        <f t="shared" si="12"/>
         <v>4.4045193181491138E-4</v>
       </c>
-      <c r="T11" s="47">
-        <f>(L11*O11-P11*S11)/($C$24+$F$24)</f>
+      <c r="T11" s="35">
+        <f t="shared" si="13"/>
         <v>-3.4021704924658069E-4</v>
       </c>
       <c r="U11" s="2">
-        <f>T11</f>
+        <f t="shared" si="14"/>
         <v>-3.4021704924658069E-4</v>
       </c>
+      <c r="V11" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.4021704924656394E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>240.84</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <v>51.486239999999995</v>
       </c>
-      <c r="E12" s="22">
-        <f>D12/C12</f>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
         <v>0.21377777777777776</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>223</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>34.787999999999997</v>
       </c>
-      <c r="H12" s="16">
-        <f>G12/F12</f>
+      <c r="H12" s="12">
+        <f t="shared" si="16"/>
         <v>0.15599999999999997</v>
       </c>
-      <c r="I12" s="8">
-        <f>C12-F12</f>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
         <v>17.840000000000003</v>
       </c>
-      <c r="J12" s="42">
-        <f>D12-G12</f>
+      <c r="J12" s="34">
+        <f t="shared" si="3"/>
         <v>16.698239999999998</v>
       </c>
-      <c r="K12" s="16">
-        <f>E12-H12</f>
+      <c r="K12" s="12">
+        <f t="shared" si="4"/>
         <v>5.7777777777777789E-2</v>
       </c>
-      <c r="L12" s="8">
-        <f>($C$24-C12+F12)</f>
+      <c r="L12" s="6">
+        <f t="shared" si="5"/>
         <v>189036.56</v>
       </c>
-      <c r="M12" s="9">
-        <f>($D$24-D12+G12)</f>
+      <c r="M12" s="7">
+        <f t="shared" si="6"/>
         <v>22172.861204360903</v>
       </c>
-      <c r="N12" s="10">
-        <f>M12/L12</f>
+      <c r="N12" s="8">
+        <f t="shared" si="7"/>
         <v>0.11729403668983875</v>
       </c>
-      <c r="O12" s="24">
-        <f>$E$24-N12</f>
+      <c r="O12" s="16">
+        <f t="shared" si="8"/>
         <v>7.7256675250353402E-5</v>
       </c>
-      <c r="P12" s="8">
-        <f>($F$24-F12+C12)</f>
+      <c r="P12" s="6">
+        <f t="shared" si="9"/>
         <v>128081.84</v>
       </c>
-      <c r="Q12" s="9">
-        <f>($G$24-G12+D12)</f>
+      <c r="Q12" s="7">
+        <f t="shared" si="10"/>
         <v>18623.837505141571</v>
       </c>
-      <c r="R12" s="10">
-        <f>Q12/P12</f>
+      <c r="R12" s="8">
+        <f t="shared" si="11"/>
         <v>0.14540576170003158</v>
       </c>
-      <c r="S12" s="11">
-        <f>$H$24-R12</f>
+      <c r="S12" s="9">
+        <f t="shared" si="12"/>
         <v>-1.1013400496057146E-4</v>
       </c>
-      <c r="T12" s="47">
-        <f>(L12*O12-P12*S12)/($C$24+$F$24)</f>
+      <c r="T12" s="35">
+        <f t="shared" si="13"/>
         <v>9.0535592158269806E-5</v>
       </c>
       <c r="U12" s="2">
-        <f>T12</f>
+        <f t="shared" si="14"/>
         <v>9.0535592158269806E-5</v>
       </c>
+      <c r="V12" s="1">
+        <f t="shared" si="15"/>
+        <v>9.0535592158281366E-5</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="13">
         <v>3717</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="14">
         <v>348.33600000000001</v>
       </c>
-      <c r="E13" s="22">
-        <f>D13/C13</f>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
         <v>9.3714285714285722E-2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>4425</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>424.8</v>
       </c>
-      <c r="H13" s="16">
-        <f>G13/F13</f>
+      <c r="H13" s="12">
+        <f t="shared" si="16"/>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I13" s="8">
-        <f>C13-F13</f>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
         <v>-708</v>
       </c>
-      <c r="J13" s="42">
-        <f>D13-G13</f>
+      <c r="J13" s="34">
+        <f t="shared" si="3"/>
         <v>-76.463999999999999</v>
       </c>
-      <c r="K13" s="16">
-        <f>E13-H13</f>
+      <c r="K13" s="12">
+        <f t="shared" si="4"/>
         <v>-2.2857142857142798E-3</v>
       </c>
-      <c r="L13" s="8">
-        <f>($C$24-C13+F13)</f>
+      <c r="L13" s="6">
+        <f t="shared" si="5"/>
         <v>189762.4</v>
       </c>
-      <c r="M13" s="9">
-        <f>($D$24-D13+G13)</f>
+      <c r="M13" s="7">
+        <f t="shared" si="6"/>
         <v>22266.023444360901</v>
       </c>
-      <c r="N13" s="10">
-        <f>M13/L13</f>
+      <c r="N13" s="8">
+        <f t="shared" si="7"/>
         <v>0.11733632924310032</v>
       </c>
-      <c r="O13" s="24">
-        <f>$E$24-N13</f>
+      <c r="O13" s="16">
+        <f t="shared" si="8"/>
         <v>3.4964121988778629E-5</v>
       </c>
-      <c r="P13" s="8">
-        <f>($F$24-F13+C13)</f>
+      <c r="P13" s="6">
+        <f t="shared" si="9"/>
         <v>127356</v>
       </c>
-      <c r="Q13" s="9">
-        <f>($G$24-G13+D13)</f>
+      <c r="Q13" s="7">
+        <f t="shared" si="10"/>
         <v>18530.675265141574</v>
       </c>
-      <c r="R13" s="10">
-        <f>Q13/P13</f>
+      <c r="R13" s="8">
+        <f t="shared" si="11"/>
         <v>0.14550296228792969</v>
       </c>
-      <c r="S13" s="11">
-        <f>$H$24-R13</f>
+      <c r="S13" s="9">
+        <f t="shared" si="12"/>
         <v>-2.0733459285868228E-4</v>
       </c>
-      <c r="T13" s="47">
-        <f>(L13*O13-P13*S13)/($C$24+$F$24)</f>
+      <c r="T13" s="35">
+        <f t="shared" si="13"/>
         <v>1.0418878283503494E-4</v>
       </c>
       <c r="U13" s="2">
-        <f>T13</f>
+        <f t="shared" si="14"/>
         <v>1.0418878283503494E-4</v>
       </c>
+      <c r="V13" s="1">
+        <f t="shared" si="15"/>
+        <v>1.0418878283503375E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="13">
         <v>100</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="14">
         <v>63.919349999999994</v>
       </c>
-      <c r="E14" s="22">
-        <f>D14/C14</f>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
         <v>0.63919349999999997</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>349</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <v>64.564999999999998</v>
       </c>
-      <c r="H14" s="16">
-        <f>G14/F14</f>
+      <c r="H14" s="12">
+        <f t="shared" si="16"/>
         <v>0.185</v>
       </c>
-      <c r="I14" s="8">
-        <f>C14-F14</f>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
         <v>-249</v>
       </c>
-      <c r="J14" s="42">
-        <f>D14-G14</f>
+      <c r="J14" s="34">
+        <f t="shared" si="3"/>
         <v>-0.64565000000000339</v>
       </c>
-      <c r="K14" s="16">
-        <f>E14-H14</f>
+      <c r="K14" s="12">
+        <f t="shared" si="4"/>
         <v>0.45419349999999997</v>
       </c>
-      <c r="L14" s="8">
-        <f>($C$24-C14+F14)</f>
+      <c r="L14" s="6">
+        <f t="shared" si="5"/>
         <v>189303.4</v>
       </c>
-      <c r="M14" s="9">
-        <f>($D$24-D14+G14)</f>
+      <c r="M14" s="7">
+        <f t="shared" si="6"/>
         <v>22190.205094360899</v>
       </c>
-      <c r="N14" s="10">
-        <f>M14/L14</f>
+      <c r="N14" s="8">
+        <f t="shared" si="7"/>
         <v>0.11722031983768331</v>
       </c>
-      <c r="O14" s="24">
-        <f>$E$24-N14</f>
+      <c r="O14" s="16">
+        <f t="shared" si="8"/>
         <v>1.509735274057844E-4</v>
       </c>
-      <c r="P14" s="8">
-        <f>($F$24-F14+C14)</f>
+      <c r="P14" s="6">
+        <f t="shared" si="9"/>
         <v>127815</v>
       </c>
-      <c r="Q14" s="9">
-        <f>($G$24-G14+D14)</f>
+      <c r="Q14" s="7">
+        <f t="shared" si="10"/>
         <v>18606.493615141575</v>
       </c>
-      <c r="R14" s="10">
-        <f>Q14/P14</f>
+      <c r="R14" s="8">
+        <f t="shared" si="11"/>
         <v>0.14557363075649629</v>
       </c>
-      <c r="S14" s="11">
-        <f>$H$24-R14</f>
+      <c r="S14" s="9">
+        <f t="shared" si="12"/>
         <v>-2.7800306142528042E-4</v>
       </c>
-      <c r="T14" s="47">
-        <f>(L14*O14-P14*S14)/($C$24+$F$24)</f>
+      <c r="T14" s="35">
+        <f t="shared" si="13"/>
         <v>2.0217295289071965E-4</v>
       </c>
       <c r="U14" s="2">
-        <f>T14</f>
+        <f t="shared" si="14"/>
         <v>2.0217295289071965E-4</v>
       </c>
+      <c r="V14" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0217295289071797E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="13">
         <v>8590.2900000000009</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="14">
         <v>834.67670999999996</v>
       </c>
-      <c r="E15" s="22">
-        <f>D15/C15</f>
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
         <v>9.716513761467889E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>7881</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>701.40899999999999</v>
       </c>
-      <c r="H15" s="16">
-        <f>G15/F15</f>
+      <c r="H15" s="12">
+        <f t="shared" si="16"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="I15" s="8">
-        <f>C15-F15</f>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
         <v>709.29000000000087</v>
       </c>
-      <c r="J15" s="42">
-        <f>D15-G15</f>
+      <c r="J15" s="34">
+        <f t="shared" si="3"/>
         <v>133.26770999999997</v>
       </c>
-      <c r="K15" s="16">
-        <f>E15-H15</f>
+      <c r="K15" s="12">
+        <f t="shared" si="4"/>
         <v>8.165137614678894E-3</v>
       </c>
-      <c r="L15" s="8">
-        <f>($C$24-C15+F15)</f>
+      <c r="L15" s="6">
+        <f t="shared" si="5"/>
         <v>188345.11</v>
       </c>
-      <c r="M15" s="9">
-        <f>($D$24-D15+G15)</f>
+      <c r="M15" s="7">
+        <f t="shared" si="6"/>
         <v>22056.291734360901</v>
       </c>
-      <c r="N15" s="10">
-        <f>M15/L15</f>
+      <c r="N15" s="8">
+        <f t="shared" si="7"/>
         <v>0.11710573072144481</v>
       </c>
-      <c r="O15" s="24">
-        <f>$E$24-N15</f>
+      <c r="O15" s="16">
+        <f t="shared" si="8"/>
         <v>2.6556264364428761E-4</v>
       </c>
-      <c r="P15" s="8">
-        <f>($F$24-F15+C15)</f>
+      <c r="P15" s="6">
+        <f t="shared" si="9"/>
         <v>128773.29000000001</v>
       </c>
-      <c r="Q15" s="9">
-        <f>($G$24-G15+D15)</f>
+      <c r="Q15" s="7">
+        <f t="shared" si="10"/>
         <v>18740.406975141574</v>
       </c>
-      <c r="R15" s="10">
-        <f>Q15/P15</f>
+      <c r="R15" s="8">
+        <f t="shared" si="11"/>
         <v>0.145530233600008</v>
       </c>
-      <c r="S15" s="11">
-        <f>$H$24-R15</f>
+      <c r="S15" s="9">
+        <f t="shared" si="12"/>
         <v>-2.346059049369853E-4</v>
       </c>
-      <c r="T15" s="47">
-        <f>(L15*O15-P15*S15)/($C$24+$F$24)</f>
+      <c r="T15" s="35">
+        <f t="shared" si="13"/>
         <v>2.5299194105809369E-4</v>
       </c>
       <c r="U15" s="2">
-        <f>T15</f>
+        <f t="shared" si="14"/>
         <v>2.5299194105809369E-4</v>
       </c>
+      <c r="V15" s="1">
+        <f t="shared" si="15"/>
+        <v>2.5299194105809922E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="13">
         <v>23787.760000000002</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="14">
         <v>3535.65</v>
       </c>
-      <c r="E16" s="22">
-        <f>D16/C16</f>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
         <v>0.14863316260127057</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>17491</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>2619</v>
       </c>
-      <c r="H16" s="16">
-        <f>G16/F16</f>
+      <c r="H16" s="12">
+        <f t="shared" si="16"/>
         <v>0.14973414899090962</v>
       </c>
-      <c r="I16" s="8">
-        <f>C16-F16</f>
+      <c r="I16" s="6">
+        <f t="shared" si="2"/>
         <v>6296.760000000002</v>
       </c>
-      <c r="J16" s="42">
-        <f>D16-G16</f>
+      <c r="J16" s="34">
+        <f t="shared" si="3"/>
         <v>916.65000000000009</v>
       </c>
-      <c r="K16" s="16">
-        <f>E16-H16</f>
+      <c r="K16" s="12">
+        <f t="shared" si="4"/>
         <v>-1.1009863896390415E-3</v>
       </c>
-      <c r="L16" s="8">
-        <f>($C$24-C16+F16)</f>
+      <c r="L16" s="6">
+        <f t="shared" si="5"/>
         <v>182757.63999999998</v>
       </c>
-      <c r="M16" s="9">
-        <f>($D$24-D16+G16)</f>
+      <c r="M16" s="7">
+        <f t="shared" si="6"/>
         <v>21272.909444360899</v>
       </c>
-      <c r="N16" s="10">
-        <f>M16/L16</f>
+      <c r="N16" s="8">
+        <f t="shared" si="7"/>
         <v>0.11639956307359244</v>
       </c>
-      <c r="O16" s="24">
-        <f>$E$24-N16</f>
+      <c r="O16" s="16">
+        <f t="shared" si="8"/>
         <v>9.7173029149666412E-4</v>
       </c>
-      <c r="P16" s="8">
-        <f>($F$24-F16+C16)</f>
+      <c r="P16" s="6">
+        <f t="shared" si="9"/>
         <v>134360.76</v>
       </c>
-      <c r="Q16" s="9">
-        <f>($G$24-G16+D16)</f>
+      <c r="Q16" s="7">
+        <f t="shared" si="10"/>
         <v>19523.789265141575</v>
       </c>
-      <c r="R16" s="10">
-        <f>Q16/P16</f>
+      <c r="R16" s="8">
+        <f t="shared" si="11"/>
         <v>0.14530871413008958</v>
       </c>
-      <c r="S16" s="11">
-        <f>$H$24-R16</f>
+      <c r="S16" s="9">
+        <f t="shared" si="12"/>
         <v>-1.3086435018572207E-5</v>
       </c>
-      <c r="T16" s="47">
-        <f>(L16*O16-P16*S16)/($C$24+$F$24)</f>
+      <c r="T16" s="35">
+        <f t="shared" si="13"/>
         <v>5.6555986074989138E-4</v>
       </c>
       <c r="U16" s="2">
-        <f>T16</f>
+        <f t="shared" si="14"/>
         <v>5.6555986074989138E-4</v>
       </c>
+      <c r="V16" s="1">
+        <f t="shared" si="15"/>
+        <v>5.6555986074988335E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="13">
         <v>3970.05</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="14">
         <v>385.7217</v>
       </c>
-      <c r="E17" s="22">
-        <f>D17/C17</f>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
         <v>9.7157894736842096E-2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>4179</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>271.63499999999999</v>
       </c>
-      <c r="H17" s="16">
-        <f>G17/F17</f>
+      <c r="H17" s="12">
+        <f t="shared" si="16"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I17" s="8">
-        <f>C17-F17</f>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
         <v>-208.94999999999982</v>
       </c>
-      <c r="J17" s="42">
-        <f>D17-G17</f>
+      <c r="J17" s="34">
+        <f t="shared" si="3"/>
         <v>114.08670000000001</v>
       </c>
-      <c r="K17" s="16">
-        <f>E17-H17</f>
+      <c r="K17" s="12">
+        <f t="shared" si="4"/>
         <v>3.2157894736842094E-2</v>
       </c>
-      <c r="L17" s="8">
-        <f>($C$24-C17+F17)</f>
+      <c r="L17" s="6">
+        <f t="shared" si="5"/>
         <v>189263.35</v>
       </c>
-      <c r="M17" s="9">
-        <f>($D$24-D17+G17)</f>
+      <c r="M17" s="7">
+        <f t="shared" si="6"/>
         <v>22075.472744360901</v>
       </c>
-      <c r="N17" s="10">
-        <f>M17/L17</f>
+      <c r="N17" s="8">
+        <f t="shared" si="7"/>
         <v>0.11663892002525</v>
       </c>
-      <c r="O17" s="24">
-        <f>$E$24-N17</f>
+      <c r="O17" s="16">
+        <f t="shared" si="8"/>
         <v>7.323733398390958E-4</v>
       </c>
-      <c r="P17" s="8">
-        <f>($F$24-F17+C17)</f>
+      <c r="P17" s="6">
+        <f t="shared" si="9"/>
         <v>127855.05</v>
       </c>
-      <c r="Q17" s="9">
-        <f>($G$24-G17+D17)</f>
+      <c r="Q17" s="7">
+        <f t="shared" si="10"/>
         <v>18721.225965141573</v>
       </c>
-      <c r="R17" s="10">
-        <f>Q17/P17</f>
+      <c r="R17" s="8">
+        <f t="shared" si="11"/>
         <v>0.1464253931709508</v>
       </c>
-      <c r="S17" s="11">
-        <f>$H$24-R17</f>
+      <c r="S17" s="9">
+        <f t="shared" si="12"/>
         <v>-1.1297654758797848E-3</v>
       </c>
-      <c r="T17" s="47">
-        <f>(L17*O17-P17*S17)/($C$24+$F$24)</f>
+      <c r="T17" s="35">
+        <f t="shared" si="13"/>
         <v>8.9259296576773672E-4</v>
       </c>
       <c r="U17" s="2">
-        <f>T17</f>
+        <f t="shared" si="14"/>
         <v>8.9259296576773672E-4</v>
       </c>
+      <c r="V17" s="1">
+        <f t="shared" si="15"/>
+        <v>8.9259296576773975E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="13">
         <v>9077.9</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="14">
         <v>1591.94</v>
       </c>
-      <c r="E18" s="22">
-        <f>D18/C18</f>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
         <v>0.17536434637966933</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>6983</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <v>1162</v>
       </c>
-      <c r="H18" s="16">
-        <f>G18/F18</f>
+      <c r="H18" s="12">
+        <f t="shared" si="16"/>
         <v>0.16640412430187598</v>
       </c>
-      <c r="I18" s="8">
-        <f>C18-F18</f>
+      <c r="I18" s="6">
+        <f t="shared" si="2"/>
         <v>2094.8999999999996</v>
       </c>
-      <c r="J18" s="42">
-        <f>D18-G18</f>
+      <c r="J18" s="34">
+        <f t="shared" si="3"/>
         <v>429.94000000000005</v>
       </c>
-      <c r="K18" s="16">
-        <f>E18-H18</f>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
         <v>8.960222077793345E-3</v>
       </c>
-      <c r="L18" s="8">
-        <f>($C$24-C18+F18)</f>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
         <v>186959.5</v>
       </c>
-      <c r="M18" s="9">
-        <f>($D$24-D18+G18)</f>
+      <c r="M18" s="7">
+        <f t="shared" si="6"/>
         <v>21759.619444360902</v>
       </c>
-      <c r="N18" s="10">
-        <f>M18/L18</f>
+      <c r="N18" s="8">
+        <f t="shared" si="7"/>
         <v>0.11638680807533665</v>
       </c>
-      <c r="O18" s="24">
-        <f>$E$24-N18</f>
+      <c r="O18" s="16">
+        <f t="shared" si="8"/>
         <v>9.8448528975245142E-4</v>
       </c>
-      <c r="P18" s="8">
-        <f>($F$24-F18+C18)</f>
+      <c r="P18" s="6">
+        <f t="shared" si="9"/>
         <v>130158.9</v>
       </c>
-      <c r="Q18" s="9">
-        <f>($G$24-G18+D18)</f>
+      <c r="Q18" s="7">
+        <f t="shared" si="10"/>
         <v>19037.079265141572</v>
       </c>
-      <c r="R18" s="10">
-        <f>Q18/P18</f>
+      <c r="R18" s="8">
+        <f t="shared" si="11"/>
         <v>0.14626029618521341</v>
       </c>
-      <c r="S18" s="11">
-        <f>$H$24-R18</f>
+      <c r="S18" s="9">
+        <f t="shared" si="12"/>
         <v>-9.6466849014240075E-4</v>
       </c>
-      <c r="T18" s="47">
-        <f>(L18*O18-P18*S18)/($C$24+$F$24)</f>
+      <c r="T18" s="35">
+        <f t="shared" si="13"/>
         <v>9.7635163103455716E-4</v>
       </c>
       <c r="U18" s="2">
-        <f>T18</f>
+        <f t="shared" si="14"/>
         <v>9.7635163103455716E-4</v>
       </c>
+      <c r="V18" s="1">
+        <f t="shared" si="15"/>
+        <v>9.7635163103456236E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="13">
         <v>8378.7000000000007</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="14">
         <v>1326.8814</v>
       </c>
-      <c r="E19" s="22">
-        <f>D19/C19</f>
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
         <v>0.15836363636363635</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>7617</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>990.21</v>
       </c>
-      <c r="H19" s="16">
-        <f>G19/F19</f>
+      <c r="H19" s="12">
+        <f t="shared" si="16"/>
         <v>0.13</v>
       </c>
-      <c r="I19" s="8">
-        <f>C19-F19</f>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
         <v>761.70000000000073</v>
       </c>
-      <c r="J19" s="42">
-        <f>D19-G19</f>
+      <c r="J19" s="34">
+        <f t="shared" si="3"/>
         <v>336.67139999999995</v>
       </c>
-      <c r="K19" s="16">
-        <f>E19-H19</f>
+      <c r="K19" s="12">
+        <f t="shared" si="4"/>
         <v>2.8363636363636341E-2</v>
       </c>
-      <c r="L19" s="8">
-        <f>($C$24-C19+F19)</f>
+      <c r="L19" s="6">
+        <f t="shared" si="5"/>
         <v>188292.69999999998</v>
       </c>
-      <c r="M19" s="9">
-        <f>($D$24-D19+G19)</f>
+      <c r="M19" s="7">
+        <f t="shared" si="6"/>
         <v>21852.888044360901</v>
       </c>
-      <c r="N19" s="10">
-        <f>M19/L19</f>
+      <c r="N19" s="8">
+        <f t="shared" si="7"/>
         <v>0.11605807365001884</v>
       </c>
-      <c r="O19" s="24">
-        <f>$E$24-N19</f>
+      <c r="O19" s="16">
+        <f t="shared" si="8"/>
         <v>1.3132197150702574E-3</v>
       </c>
-      <c r="P19" s="8">
-        <f>($F$24-F19+C19)</f>
+      <c r="P19" s="6">
+        <f t="shared" si="9"/>
         <v>128825.7</v>
       </c>
-      <c r="Q19" s="9">
-        <f>($G$24-G19+D19)</f>
+      <c r="Q19" s="7">
+        <f t="shared" si="10"/>
         <v>18943.810665141573</v>
       </c>
-      <c r="R19" s="10">
-        <f>Q19/P19</f>
+      <c r="R19" s="8">
+        <f t="shared" si="11"/>
         <v>0.14704993386522699</v>
       </c>
-      <c r="S19" s="11">
-        <f>$H$24-R19</f>
+      <c r="S19" s="9">
+        <f t="shared" si="12"/>
         <v>-1.7543061701559837E-3</v>
       </c>
-      <c r="T19" s="47">
-        <f>(L19*O19-P19*S19)/($C$24+$F$24)</f>
+      <c r="T19" s="35">
+        <f t="shared" si="13"/>
         <v>1.4924060105893353E-3</v>
       </c>
       <c r="U19" s="2">
-        <f>T19</f>
+        <f t="shared" si="14"/>
         <v>1.4924060105893353E-3</v>
       </c>
+      <c r="V19" s="1">
+        <f t="shared" si="15"/>
+        <v>1.4924060105893436E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>8765.82</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="14">
         <v>2064.6984599999996</v>
       </c>
-      <c r="E20" s="22">
-        <f>D20/C20</f>
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
         <v>0.23553968253968249</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>6957</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>1454.0129999999999</v>
       </c>
-      <c r="H20" s="16">
-        <f>G20/F20</f>
+      <c r="H20" s="12">
+        <f t="shared" si="16"/>
         <v>0.20899999999999999</v>
       </c>
-      <c r="I20" s="8">
-        <f>C20-F20</f>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
         <v>1808.8199999999997</v>
       </c>
-      <c r="J20" s="42">
-        <f>D20-G20</f>
+      <c r="J20" s="34">
+        <f t="shared" si="3"/>
         <v>610.68545999999969</v>
       </c>
-      <c r="K20" s="16">
-        <f>E20-H20</f>
+      <c r="K20" s="12">
+        <f t="shared" si="4"/>
         <v>2.6539682539682502E-2</v>
       </c>
-      <c r="L20" s="8">
-        <f>($C$24-C20+F20)</f>
+      <c r="L20" s="6">
+        <f t="shared" si="5"/>
         <v>187245.58</v>
       </c>
-      <c r="M20" s="9">
-        <f>($D$24-D20+G20)</f>
+      <c r="M20" s="7">
+        <f t="shared" si="6"/>
         <v>21578.8739843609</v>
       </c>
-      <c r="N20" s="10">
-        <f>M20/L20</f>
+      <c r="N20" s="8">
+        <f t="shared" si="7"/>
         <v>0.11524370286530075</v>
       </c>
-      <c r="O20" s="24">
-        <f>$E$24-N20</f>
+      <c r="O20" s="16">
+        <f t="shared" si="8"/>
         <v>2.1275904997883482E-3</v>
       </c>
-      <c r="P20" s="8">
-        <f>($F$24-F20+C20)</f>
+      <c r="P20" s="6">
+        <f t="shared" si="9"/>
         <v>129872.82</v>
       </c>
-      <c r="Q20" s="9">
-        <f>($G$24-G20+D20)</f>
+      <c r="Q20" s="7">
+        <f t="shared" si="10"/>
         <v>19217.824725141574</v>
       </c>
-      <c r="R20" s="10">
-        <f>Q20/P20</f>
+      <c r="R20" s="8">
+        <f t="shared" si="11"/>
         <v>0.14797418524631692</v>
       </c>
-      <c r="S20" s="11">
-        <f>$H$24-R20</f>
+      <c r="S20" s="9">
+        <f t="shared" si="12"/>
         <v>-2.6785575512459081E-3</v>
       </c>
-      <c r="T20" s="47">
-        <f>(L20*O20-P20*S20)/($C$24+$F$24)</f>
+      <c r="T20" s="35">
+        <f t="shared" si="13"/>
         <v>2.3532338074610604E-3</v>
       </c>
       <c r="U20" s="2">
-        <f>T20</f>
+        <f t="shared" si="14"/>
         <v>2.3532338074610604E-3</v>
       </c>
+      <c r="V20" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3532338074610634E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="13">
         <v>6027.7</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="14">
         <v>783.44839999999999</v>
       </c>
-      <c r="E21" s="22">
-        <f>D21/C21</f>
+      <c r="E21" s="15">
+        <f t="shared" si="0"/>
         <v>0.1299746835443038</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>7630</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>518.84</v>
       </c>
-      <c r="H21" s="16">
-        <f>G21/F21</f>
+      <c r="H21" s="12">
+        <f t="shared" si="16"/>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="I21" s="8">
-        <f>C21-F21</f>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
         <v>-1602.3000000000002</v>
       </c>
-      <c r="J21" s="42">
-        <f>D21-G21</f>
+      <c r="J21" s="34">
+        <f t="shared" si="3"/>
         <v>264.60839999999996</v>
       </c>
-      <c r="K21" s="16">
-        <f>E21-H21</f>
+      <c r="K21" s="12">
+        <f t="shared" si="4"/>
         <v>6.1974683544303799E-2</v>
       </c>
-      <c r="L21" s="8">
-        <f>($C$24-C21+F21)</f>
+      <c r="L21" s="6">
+        <f t="shared" si="5"/>
         <v>190656.69999999998</v>
       </c>
-      <c r="M21" s="9">
-        <f>($D$24-D21+G21)</f>
+      <c r="M21" s="7">
+        <f t="shared" si="6"/>
         <v>21924.9510443609</v>
       </c>
-      <c r="N21" s="10">
-        <f>M21/L21</f>
+      <c r="N21" s="8">
+        <f t="shared" si="7"/>
         <v>0.1149970131884214</v>
       </c>
-      <c r="O21" s="24">
-        <f>$E$24-N21</f>
+      <c r="O21" s="16">
+        <f t="shared" si="8"/>
         <v>2.3742801766677007E-3</v>
       </c>
-      <c r="P21" s="8">
-        <f>($F$24-F21+C21)</f>
+      <c r="P21" s="6">
+        <f t="shared" si="9"/>
         <v>126461.7</v>
       </c>
-      <c r="Q21" s="9">
-        <f>($G$24-G21+D21)</f>
+      <c r="Q21" s="7">
+        <f t="shared" si="10"/>
         <v>18871.747665141575</v>
       </c>
-      <c r="R21" s="10">
-        <f>Q21/P21</f>
+      <c r="R21" s="8">
+        <f t="shared" si="11"/>
         <v>0.14922895758274304</v>
       </c>
-      <c r="S21" s="11">
-        <f>$H$24-R21</f>
+      <c r="S21" s="9">
+        <f t="shared" si="12"/>
         <v>-3.9333298876720324E-3</v>
       </c>
-      <c r="T21" s="47">
-        <f>(L21*O21-P21*S21)/($C$24+$F$24)</f>
+      <c r="T21" s="35">
+        <f t="shared" si="13"/>
         <v>2.9960040401777223E-3</v>
       </c>
       <c r="U21" s="2">
-        <f>T21</f>
+        <f t="shared" si="14"/>
         <v>2.9960040401777223E-3</v>
       </c>
+      <c r="V21" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9960040401777201E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="13">
         <v>10573.9</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="14">
         <v>1859</v>
       </c>
-      <c r="E22" s="22">
-        <f>D22/C22</f>
+      <c r="E22" s="15">
+        <f t="shared" si="0"/>
         <v>0.1758102497659331</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>7982</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <v>997.75</v>
       </c>
-      <c r="H22" s="16">
-        <f>G22/F22</f>
+      <c r="H22" s="12">
+        <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
-      <c r="I22" s="8">
-        <f>C22-F22</f>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
         <v>2591.8999999999996</v>
       </c>
-      <c r="J22" s="42">
-        <f>D22-G22</f>
+      <c r="J22" s="34">
+        <f t="shared" si="3"/>
         <v>861.25</v>
       </c>
-      <c r="K22" s="16">
-        <f>E22-H22</f>
+      <c r="K22" s="12">
+        <f t="shared" si="4"/>
         <v>5.0810249765933096E-2</v>
       </c>
-      <c r="L22" s="8">
-        <f>($C$24-C22+F22)</f>
+      <c r="L22" s="6">
+        <f t="shared" si="5"/>
         <v>186462.5</v>
       </c>
-      <c r="M22" s="9">
-        <f>($D$24-D22+G22)</f>
+      <c r="M22" s="7">
+        <f t="shared" si="6"/>
         <v>21328.309444360901</v>
       </c>
-      <c r="N22" s="10">
-        <f>M22/L22</f>
+      <c r="N22" s="8">
+        <f t="shared" si="7"/>
         <v>0.11438390799415915</v>
       </c>
-      <c r="O22" s="24">
-        <f>$E$24-N22</f>
+      <c r="O22" s="16">
+        <f t="shared" si="8"/>
         <v>2.9873853709299486E-3</v>
       </c>
-      <c r="P22" s="8">
-        <f>($F$24-F22+C22)</f>
+      <c r="P22" s="6">
+        <f t="shared" si="9"/>
         <v>130655.9</v>
       </c>
-      <c r="Q22" s="9">
-        <f>($G$24-G22+D22)</f>
+      <c r="Q22" s="7">
+        <f t="shared" si="10"/>
         <v>19468.389265141574</v>
       </c>
-      <c r="R22" s="10">
-        <f>Q22/P22</f>
+      <c r="R22" s="8">
+        <f t="shared" si="11"/>
         <v>0.14900505270057895</v>
       </c>
-      <c r="S22" s="11">
-        <f>$H$24-R22</f>
+      <c r="S22" s="9">
+        <f t="shared" si="12"/>
         <v>-3.7094250055079436E-3</v>
       </c>
-      <c r="T22" s="47">
-        <f>(L22*O22-P22*S22)/($C$24+$F$24)</f>
+      <c r="T22" s="35">
+        <f t="shared" si="13"/>
         <v>3.2848728024112471E-3</v>
       </c>
       <c r="U22" s="2">
-        <f>T22</f>
+        <f t="shared" si="14"/>
         <v>3.2848728024112471E-3</v>
       </c>
+      <c r="V22" s="1">
+        <f t="shared" si="15"/>
+        <v>3.2848728024112476E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.8">
-      <c r="B24" s="36" t="s">
+    <row r="23" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+      <c r="B24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="29">
         <f>SUM(C3:C22)</f>
         <v>189054.4</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="29">
         <f>SUM(D3:D22)</f>
         <v>22189.559444360901</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="30">
         <f>D24/C24</f>
         <v>0.1173712933650891</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="29">
         <f>SUM(F3:F22)</f>
         <v>128064</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="29">
         <f>SUM(G3:G22)</f>
         <v>18607.139265141574</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="30">
         <f>G24/F24</f>
         <v>0.14529562769507101</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="39">
         <f>C24-F24</f>
         <v>60990.399999999994</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="40">
         <f>D24-G24</f>
         <v>3582.4201792193271</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="42">
         <f>E24-H24</f>
         <v>-2.7924334329981912E-2</v>
       </c>
@@ -2514,35 +2602,42 @@
       <c r="O24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="39">
+      <c r="T24" s="31">
         <f>SUM(T3:T22)</f>
         <v>-2.7924334329982002E-2</v>
       </c>
-      <c r="U24" s="50"/>
+      <c r="U24" s="36"/>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.8">
-      <c r="B26" s="55" t="s">
+    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+      <c r="B26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="39">
         <f>C24-F24</f>
         <v>60990.399999999994</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="40">
         <f>D24-G24</f>
         <v>3582.4201792193271</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="42">
         <f>E24-H24</f>
         <v>-2.7924334329981912E-2</v>
       </c>
       <c r="K26" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="T30" s="1">
+        <f>((D24*(F5-C5))/C24+2*(D5-G5)-(G24*(C5-F5))/F24)/(C24+F24)</f>
+        <v>-5.1081527030439723E-3</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U22">
     <sortCondition ref="T3:T22"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>

--- a/Percentage Difference Break Down formula.xlsx
+++ b/Percentage Difference Break Down formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC67D5-A514-4D78-8138-05D7D40E9885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D34ACE-8A31-4D7C-BF3E-C1FDE2FDB9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{08B9B44F-3B79-422D-84E6-A72EDB3BCCD9}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C603F10A-2A11-49B6-9F3F-0827B49425EA}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -963,8 +963,8 @@
         <v>-1.9339681761416781E-2</v>
       </c>
       <c r="V3" s="1">
-        <f>(($F$24*$D$24*(F3-C3)+2*$C$24*$F$24*(D3-G3)-$C$24*$G$24*(C3-F3))/($C$24*$F$24))/($C$24+$F$24)</f>
-        <v>-1.933968176141676E-2</v>
+        <f>(($E$24*(F3-C3)-$H$24*(C3-F3))+2*(D3-G3))/($C$24+$F$24)</f>
+        <v>-1.9339681761416757E-2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.75">
@@ -1047,8 +1047,8 @@
         <v>-1.0346496803380666E-2</v>
       </c>
       <c r="V4" s="1">
-        <f>(($F$24*$D$24*(F4-C4)+2*$C$24*$F$24*(D4-G4)-$C$24*$G$24*(C4-F4))/($C$24*$F$24))/($C$24+$F$24)</f>
-        <v>-1.0346496803380673E-2</v>
+        <f t="shared" ref="V4:V22" si="15">(($E$24*(F4-C4)-$H$24*(C4-F4))+2*(D4-G4))/($C$24+$F$24)</f>
+        <v>-1.0346496803380675E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.75">
@@ -1131,8 +1131,8 @@
         <v>-5.1081527030439862E-3</v>
       </c>
       <c r="V5" s="1">
-        <f>(($F$24*$D$24*(F5-C5)+2*$C$24*$F$24*(D5-G5)-$C$24*$G$24*(C5-F5))/($C$24*$F$24))/($C$24+$F$24)</f>
-        <v>-5.1081527030439732E-3</v>
+        <f t="shared" si="15"/>
+        <v>-5.1081527030439723E-3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.75">
@@ -1215,7 +1215,7 @@
         <v>-1.8084869744614007E-3</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" ref="V6:V22" si="15">(($F$24*$D$24*(F6-C6)+2*$C$24*$F$24*(D6-G6)-$C$24*$G$24*(C6-F6))/($C$24*$F$24))/($C$24+$F$24)</f>
+        <f t="shared" si="15"/>
         <v>-1.8084869744614002E-3</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="V9" s="1">
         <f t="shared" si="15"/>
-        <v>-8.6668974748149968E-4</v>
+        <v>-8.6668974748149979E-4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.75">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" si="15"/>
-        <v>-3.4021704924656394E-4</v>
+        <v>-3.4021704924656399E-4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.75">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="V12" s="1">
         <f t="shared" si="15"/>
-        <v>9.0535592158281366E-5</v>
+        <v>9.053559215828138E-5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.75">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="V13" s="1">
         <f t="shared" si="15"/>
-        <v>1.0418878283503375E-4</v>
+        <v>1.0418878283503379E-4</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.75">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="V16" s="1">
         <f t="shared" si="15"/>
-        <v>5.6555986074988335E-4</v>
+        <v>5.6555986074988325E-4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.75">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="V18" s="1">
         <f t="shared" si="15"/>
-        <v>9.7635163103456236E-4</v>
+        <v>9.7635163103456215E-4</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.75">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V20" s="1">
         <f t="shared" si="15"/>
-        <v>2.3532338074610634E-3</v>
+        <v>2.3532338074610639E-3</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.75">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="V21" s="1">
         <f t="shared" si="15"/>
-        <v>2.9960040401777201E-3</v>
+        <v>2.9960040401777206E-3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.75">

--- a/Percentage Difference Break Down formula.xlsx
+++ b/Percentage Difference Break Down formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D34ACE-8A31-4D7C-BF3E-C1FDE2FDB9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E3321-9E18-4FB9-818D-F4B0F4CC4A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{08B9B44F-3B79-422D-84E6-A72EDB3BCCD9}"/>
   </bookViews>
@@ -113,12 +113,6 @@
     <t>Actuals Month 2</t>
   </si>
   <si>
-    <t>Month 2 Total with values from Month 1</t>
-  </si>
-  <si>
-    <t>Month 1 total with values from Month 2</t>
-  </si>
-  <si>
     <t>MoM Difference</t>
   </si>
   <si>
@@ -128,26 +122,33 @@
     <t>Actuals Month 1</t>
   </si>
   <si>
-    <t>Percentage Difference Break-Down</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Percentage Difference Break-Down (shortened)</t>
+    <t>Month 2 Total with values from Month 1 (Step 1)</t>
+  </si>
+  <si>
+    <t>Month 1 total with values from Month 2 (Step 2)</t>
+  </si>
+  <si>
+    <t>Percentage Difference Break-Down (Step 3)</t>
+  </si>
+  <si>
+    <t>Percentage Difference Break Down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,14 +259,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -341,12 +328,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -364,88 +375,92 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C603F10A-2A11-49B6-9F3F-0827B49425EA}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -774,51 +789,56 @@
     <col min="1" max="1" width="4.04296875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="14.31640625" customWidth="1"/>
     <col min="3" max="11" width="11.86328125" customWidth="1"/>
-    <col min="12" max="14" width="12" customWidth="1"/>
-    <col min="15" max="17" width="11.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.90625" customWidth="1"/>
-    <col min="20" max="20" width="7.6796875" customWidth="1"/>
-    <col min="21" max="21" width="11.31640625" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" customWidth="1"/>
+    <col min="12" max="14" width="12" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="11.86328125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.08984375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" customWidth="1"/>
+    <col min="22" max="22" width="7.04296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="46"/>
+    </row>
+    <row r="2" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
-    </row>
-    <row r="2" spans="1:23" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -871,19 +891,14 @@
       <c r="R2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>3</v>
       </c>
@@ -923,11 +938,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="33">
-        <f t="shared" ref="L3:L22" si="5">($C$24-C3+F3)</f>
+        <f t="shared" ref="L3:L22" si="5">($C$25-C3+F3)</f>
         <v>137054.39999999999</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M22" si="6">($D$24-D3+G3)</f>
+        <f t="shared" ref="M3:M22" si="6">($D$25-D3+G3)</f>
         <v>18426.703965141573</v>
       </c>
       <c r="N3" s="8">
@@ -935,15 +950,15 @@
         <v>0.13444810210501504</v>
       </c>
       <c r="O3" s="16">
-        <f t="shared" ref="O3:O22" si="8">$E$24-N3</f>
+        <f t="shared" ref="O3:O22" si="8">$E$25-N3</f>
         <v>-1.7076808739925939E-2</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="9">($F$24-F3+C3)</f>
+        <f t="shared" ref="P3:P22" si="9">($F$25-F3+C3)</f>
         <v>180064</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q22" si="10">($G$24-G3+D3)</f>
+        <f t="shared" ref="Q3:Q22" si="10">($G$25-G3+D3)</f>
         <v>22369.994744360902</v>
       </c>
       <c r="R3" s="8">
@@ -951,23 +966,23 @@
         <v>0.12423357664142139</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S22" si="12">$H$24-R3</f>
+        <f t="shared" ref="S3:S22" si="12">$H$25-R3</f>
         <v>2.1062051053649625E-2</v>
       </c>
-      <c r="T3" s="35">
-        <f t="shared" ref="T3:T22" si="13">(L3*O3-P3*S3)/($C$24+$F$24)</f>
+      <c r="T3" s="39">
+        <f t="shared" ref="T3:T22" si="13">(L3*O3-P3*S3)/($C$25+$F$25)</f>
         <v>-1.9339681761416781E-2</v>
       </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U22" si="14">T3</f>
-        <v>-1.9339681761416781E-2</v>
-      </c>
-      <c r="V3" s="1">
-        <f>(($E$24*(F3-C3)-$H$24*(C3-F3))+2*(D3-G3))/($C$24+$F$24)</f>
+      <c r="U3" s="1">
+        <f>(2*(D3-G3)-($E$25+$H$25)*(C3-F3))/($C$25+$F$25)</f>
         <v>-1.9339681761416757E-2</v>
       </c>
+      <c r="V3" s="2">
+        <f>U3</f>
+        <v>-1.9339681761416757E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1038,20 +1053,20 @@
         <f t="shared" si="12"/>
         <v>1.2767922258865277E-2</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="40">
         <f t="shared" si="13"/>
         <v>-1.0346496803380666E-2</v>
       </c>
-      <c r="U4" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.0346496803380666E-2</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" ref="V4:V22" si="15">(($E$24*(F4-C4)-$H$24*(C4-F4))+2*(D4-G4))/($C$24+$F$24)</f>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U22" si="14">(2*(D4-G4)-($E$25+$H$25)*(C4-F4))/($C$25+$F$25)</f>
         <v>-1.0346496803380675E-2</v>
       </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4:V22" si="15">U4</f>
+        <v>-1.0346496803380675E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1122,20 +1137,20 @@
         <f t="shared" si="12"/>
         <v>5.9915027858389314E-3</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="40">
         <f t="shared" si="13"/>
         <v>-5.1081527030439862E-3</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <f t="shared" si="14"/>
-        <v>-5.1081527030439862E-3</v>
-      </c>
-      <c r="V5" s="1">
+        <v>-5.1081527030439723E-3</v>
+      </c>
+      <c r="V5" s="2">
         <f t="shared" si="15"/>
         <v>-5.1081527030439723E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1206,20 +1221,20 @@
         <f t="shared" si="12"/>
         <v>2.4148523780131992E-3</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="40">
         <f t="shared" si="13"/>
         <v>-1.8084869744614007E-3</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <f t="shared" si="14"/>
-        <v>-1.8084869744614007E-3</v>
-      </c>
-      <c r="V6" s="1">
+        <v>-1.8084869744614E-3</v>
+      </c>
+      <c r="V6" s="2">
         <f t="shared" si="15"/>
-        <v>-1.8084869744614002E-3</v>
+        <v>-1.8084869744614E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>19</v>
       </c>
@@ -1290,20 +1305,20 @@
         <f t="shared" si="12"/>
         <v>1.941320201842095E-3</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="40">
         <f t="shared" si="13"/>
         <v>-1.4792850163406136E-3</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <f t="shared" si="14"/>
-        <v>-1.4792850163406136E-3</v>
-      </c>
-      <c r="V7" s="1">
+        <v>-1.4792850163406171E-3</v>
+      </c>
+      <c r="V7" s="2">
         <f t="shared" si="15"/>
         <v>-1.4792850163406171E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1374,20 +1389,20 @@
         <f t="shared" si="12"/>
         <v>1.4521782231231017E-3</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="40">
         <f t="shared" si="13"/>
         <v>-1.0941499049023332E-3</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <f t="shared" si="14"/>
-        <v>-1.0941499049023332E-3</v>
-      </c>
-      <c r="V8" s="1">
+        <v>-1.0941499049023208E-3</v>
+      </c>
+      <c r="V8" s="2">
         <f t="shared" si="15"/>
-        <v>-1.094149904902321E-3</v>
+        <v>-1.0941499049023208E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1451,20 +1466,20 @@
         <f t="shared" si="12"/>
         <v>1.3059078274006153E-3</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="40">
         <f t="shared" si="13"/>
         <v>-8.6668974748150857E-4</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <f t="shared" si="14"/>
-        <v>-8.6668974748150857E-4</v>
-      </c>
-      <c r="V9" s="1">
+        <v>-8.6668974748149946E-4</v>
+      </c>
+      <c r="V9" s="2">
         <f t="shared" si="15"/>
-        <v>-8.6668974748149979E-4</v>
+        <v>-8.6668974748149946E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1535,20 +1550,20 @@
         <f t="shared" si="12"/>
         <v>1.0033385339770495E-3</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="40">
         <f t="shared" si="13"/>
         <v>-7.5208475684179212E-4</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <f t="shared" si="14"/>
-        <v>-7.5208475684179212E-4</v>
-      </c>
-      <c r="V10" s="1">
+        <v>-7.5208475684177586E-4</v>
+      </c>
+      <c r="V10" s="2">
         <f t="shared" si="15"/>
-        <v>-7.5208475684177597E-4</v>
+        <v>-7.5208475684177586E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1619,20 +1634,20 @@
         <f t="shared" si="12"/>
         <v>4.4045193181491138E-4</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="40">
         <f t="shared" si="13"/>
         <v>-3.4021704924658069E-4</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <f t="shared" si="14"/>
-        <v>-3.4021704924658069E-4</v>
-      </c>
-      <c r="V11" s="1">
+        <v>-3.4021704924656399E-4</v>
+      </c>
+      <c r="V11" s="2">
         <f t="shared" si="15"/>
         <v>-3.4021704924656399E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1703,20 +1718,20 @@
         <f t="shared" si="12"/>
         <v>-1.1013400496057146E-4</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="40">
         <f t="shared" si="13"/>
         <v>9.0535592158269806E-5</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <f t="shared" si="14"/>
-        <v>9.0535592158269806E-5</v>
-      </c>
-      <c r="V12" s="1">
+        <v>9.053559215828138E-5</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" si="15"/>
         <v>9.053559215828138E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1787,20 +1802,20 @@
         <f t="shared" si="12"/>
         <v>-2.0733459285868228E-4</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="40">
         <f t="shared" si="13"/>
         <v>1.0418878283503494E-4</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <f t="shared" si="14"/>
-        <v>1.0418878283503494E-4</v>
-      </c>
-      <c r="V13" s="1">
+        <v>1.0418878283503371E-4</v>
+      </c>
+      <c r="V13" s="2">
         <f t="shared" si="15"/>
-        <v>1.0418878283503379E-4</v>
+        <v>1.0418878283503371E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1871,20 +1886,20 @@
         <f t="shared" si="12"/>
         <v>-2.7800306142528042E-4</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="40">
         <f t="shared" si="13"/>
         <v>2.0217295289071965E-4</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <f t="shared" si="14"/>
-        <v>2.0217295289071965E-4</v>
-      </c>
-      <c r="V14" s="1">
+        <v>2.0217295289071797E-4</v>
+      </c>
+      <c r="V14" s="2">
         <f t="shared" si="15"/>
         <v>2.0217295289071797E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1955,20 +1970,20 @@
         <f t="shared" si="12"/>
         <v>-2.346059049369853E-4</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="40">
         <f t="shared" si="13"/>
         <v>2.5299194105809369E-4</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <f t="shared" si="14"/>
-        <v>2.5299194105809369E-4</v>
-      </c>
-      <c r="V15" s="1">
+        <v>2.5299194105809922E-4</v>
+      </c>
+      <c r="V15" s="2">
         <f t="shared" si="15"/>
         <v>2.5299194105809922E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2039,17 +2054,17 @@
         <f t="shared" si="12"/>
         <v>-1.3086435018572207E-5</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="40">
         <f t="shared" si="13"/>
         <v>5.6555986074989138E-4</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <f t="shared" si="14"/>
-        <v>5.6555986074989138E-4</v>
-      </c>
-      <c r="V16" s="1">
+        <v>5.65559860749884E-4</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="15"/>
-        <v>5.6555986074988325E-4</v>
+        <v>5.65559860749884E-4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.75">
@@ -2123,15 +2138,15 @@
         <f t="shared" si="12"/>
         <v>-1.1297654758797848E-3</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="40">
         <f t="shared" si="13"/>
         <v>8.9259296576773672E-4</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <f t="shared" si="14"/>
-        <v>8.9259296576773672E-4</v>
-      </c>
-      <c r="V17" s="1">
+        <v>8.9259296576773975E-4</v>
+      </c>
+      <c r="V17" s="2">
         <f t="shared" si="15"/>
         <v>8.9259296576773975E-4</v>
       </c>
@@ -2207,17 +2222,17 @@
         <f t="shared" si="12"/>
         <v>-9.6466849014240075E-4</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="40">
         <f t="shared" si="13"/>
         <v>9.7635163103455716E-4</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="1">
         <f t="shared" si="14"/>
-        <v>9.7635163103455716E-4</v>
-      </c>
-      <c r="V18" s="1">
+        <v>9.7635163103456258E-4</v>
+      </c>
+      <c r="V18" s="2">
         <f t="shared" si="15"/>
-        <v>9.7635163103456215E-4</v>
+        <v>9.7635163103456258E-4</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.75">
@@ -2291,15 +2306,15 @@
         <f t="shared" si="12"/>
         <v>-1.7543061701559837E-3</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="40">
         <f t="shared" si="13"/>
         <v>1.4924060105893353E-3</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="1">
         <f t="shared" si="14"/>
-        <v>1.4924060105893353E-3</v>
-      </c>
-      <c r="V19" s="1">
+        <v>1.4924060105893436E-3</v>
+      </c>
+      <c r="V19" s="2">
         <f t="shared" si="15"/>
         <v>1.4924060105893436E-3</v>
       </c>
@@ -2375,15 +2390,15 @@
         <f t="shared" si="12"/>
         <v>-2.6785575512459081E-3</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="40">
         <f t="shared" si="13"/>
         <v>2.3532338074610604E-3</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="1">
         <f t="shared" si="14"/>
-        <v>2.3532338074610604E-3</v>
-      </c>
-      <c r="V20" s="1">
+        <v>2.3532338074610639E-3</v>
+      </c>
+      <c r="V20" s="2">
         <f t="shared" si="15"/>
         <v>2.3532338074610639E-3</v>
       </c>
@@ -2459,15 +2474,15 @@
         <f t="shared" si="12"/>
         <v>-3.9333298876720324E-3</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="40">
         <f t="shared" si="13"/>
         <v>2.9960040401777223E-3</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="1">
         <f t="shared" si="14"/>
-        <v>2.9960040401777223E-3</v>
-      </c>
-      <c r="V21" s="1">
+        <v>2.9960040401777206E-3</v>
+      </c>
+      <c r="V21" s="2">
         <f t="shared" si="15"/>
         <v>2.9960040401777206E-3</v>
       </c>
@@ -2543,109 +2558,135 @@
         <f t="shared" si="12"/>
         <v>-3.7094250055079436E-3</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="40">
         <f t="shared" si="13"/>
         <v>3.2848728024112471E-3</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="1">
         <f t="shared" si="14"/>
-        <v>3.2848728024112471E-3</v>
-      </c>
-      <c r="V22" s="1">
+        <v>3.2848728024112476E-3</v>
+      </c>
+      <c r="V22" s="2">
         <f t="shared" si="15"/>
         <v>3.2848728024112476E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.8">
-      <c r="B24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="29">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.75"/>
+    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+      <c r="B25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="29">
         <f>SUM(C3:C22)</f>
         <v>189054.4</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D25" s="29">
         <f>SUM(D3:D22)</f>
         <v>22189.559444360901</v>
       </c>
-      <c r="E24" s="30">
-        <f>D24/C24</f>
+      <c r="E25" s="30">
+        <f>D25/C25</f>
         <v>0.1173712933650891</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F25" s="29">
         <f>SUM(F3:F22)</f>
         <v>128064</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G25" s="29">
         <f>SUM(G3:G22)</f>
         <v>18607.139265141574</v>
       </c>
-      <c r="H24" s="30">
-        <f>G24/F24</f>
+      <c r="H25" s="30">
+        <f>G25/F25</f>
         <v>0.14529562769507101</v>
       </c>
-      <c r="I24" s="39">
-        <f>C24-F24</f>
+      <c r="I25" s="35">
+        <f>C25-F25</f>
         <v>60990.399999999994</v>
       </c>
-      <c r="J24" s="40">
-        <f>D24-G24</f>
+      <c r="J25" s="36">
+        <f>D25-G25</f>
         <v>3582.4201792193271</v>
       </c>
-      <c r="K24" s="42">
-        <f>E24-H24</f>
+      <c r="K25" s="38">
+        <f>E25-H25</f>
         <v>-2.7924334329981912E-2</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="31">
-        <f>SUM(T3:T22)</f>
-        <v>-2.7924334329982002E-2</v>
-      </c>
-      <c r="U24" s="36"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+      <c r="U25" s="31">
+        <f>SUM(U3:U22)</f>
+        <v>-2.7924334329981888E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.8">
-      <c r="B26" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="39">
-        <f>C24-F24</f>
+    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.8">
+      <c r="B28" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="35">
+        <f>C25-F25</f>
         <v>60990.399999999994</v>
       </c>
-      <c r="D26" s="40">
-        <f>D24-G24</f>
+      <c r="D28" s="36">
+        <f>D25-G25</f>
         <v>3582.4201792193271</v>
       </c>
-      <c r="E26" s="42">
-        <f>E24-H24</f>
+      <c r="E28" s="38">
+        <f>E25-H25</f>
         <v>-2.7924334329981912E-2</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K28" s="3"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="T30" s="1">
-        <f>((D24*(F5-C5))/C24+2*(D5-G5)-(G24*(C5-F5))/F24)/(C24+F24)</f>
-        <v>-5.1081527030439723E-3</v>
-      </c>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="F32" s="43"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.75">
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T22">
     <sortCondition ref="T3:T22"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:V2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="U3:U22">
+  <conditionalFormatting sqref="V3:V23">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -2662,7 +2703,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E24" formula="1"/>
+    <ignoredError sqref="E25" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2676,7 +2717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U22</xm:sqref>
+          <xm:sqref>V3:V23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
